--- a/data/metadata/Informe-01-010060-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010060-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>ccaa-nombre</t>
   </si>
@@ -61,7 +61,7 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:provincia</t>
   </si>
   <si>
     <t>iaest-measure:numero-total-de-explotaciones</t>
@@ -76,7 +76,7 @@
     <t>iaest-measure:explotaciones-cuyo-titular-es-persona-fisica</t>
   </si>
   <si>
-    <t>iaest-dimension:explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
+    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
   </si>
   <si>
     <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
@@ -97,16 +97,10 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>mapping-ccaa-nombre.xlsx</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-explotaciones-cuya-gestion-se-lleva-por-otra-persona.xlsx</t>
   </si>
 </sst>
 </file>
@@ -259,7 +253,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
@@ -280,7 +274,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>25</v>
@@ -300,7 +294,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -321,7 +315,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>27</v>
@@ -332,13 +326,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010060-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010060-A-TC-TM-TP.xlsx
@@ -11,93 +11,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>numero-total-de-explotaciones</t>
-  </si>
-  <si>
-    <t>codigo-de-la-provincia</t>
-  </si>
-  <si>
-    <t>comarca</t>
-  </si>
-  <si>
-    <t>codigo-del-municipio</t>
-  </si>
-  <si>
-    <t>codigo-de-la-comarca</t>
-  </si>
-  <si>
-    <t>explotaciones-cuyo-titular-es-persona-fisica</t>
-  </si>
-  <si>
-    <t>explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
-  </si>
-  <si>
-    <t>explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
-  </si>
-  <si>
-    <t>explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+  <si>
+    <t>Código de la provincia</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Explotaciones cuya gestión se lleva por otra persona</t>
+  </si>
+  <si>
+    <t>Número total de explotaciones</t>
+  </si>
+  <si>
+    <t>Comarca</t>
+  </si>
+  <si>
+    <t>Explotaciones cuyo titular es persona física</t>
+  </si>
+  <si>
+    <t>Nombre del municipio</t>
+  </si>
+  <si>
+    <t>Código del municipio</t>
+  </si>
+  <si>
+    <t>Explotaciones cuya gestión se lleva por el titular de la misma</t>
+  </si>
+  <si>
+    <t>Código de la comarca</t>
+  </si>
+  <si>
+    <t>Explotaciones cuya gestión se lleva por un miembro de la familia, no titular</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-total-de-explotaciones</t>
+  </si>
+  <si>
+    <t>iaest-measure:comarca</t>
+  </si>
+  <si>
+    <t>iaest-measure:explotaciones-cuyo-titular-es-persona-fisica</t>
   </si>
   <si>
     <t>iaest-measure:nombre-del-municipio</t>
   </si>
   <si>
+    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
+  </si>
+  <si>
+    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
     <t>iaest-measure:provincia</t>
   </si>
   <si>
-    <t>iaest-measure:numero-total-de-explotaciones</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:comarca</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuyo-titular-es-persona-fisica</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -224,13 +227,13 @@
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>21</v>
@@ -244,40 +247,40 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>25</v>
@@ -285,51 +288,48 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010060-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010060-A-TC-TM-TP.xlsx
@@ -1,202 +1,287 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Informe-01-010060-A-TC-TM-TP" sheetId="1" r:id="rId3"/>
+    <sheet name="Informe-05-050314-A-TC-TP" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
-    <t>Código de la provincia</t>
-  </si>
-  <si>
-    <t>CCAA nombre</t>
-  </si>
-  <si>
-    <t>Explotaciones cuya gestión se lleva por otra persona</t>
-  </si>
-  <si>
-    <t>Número total de explotaciones</t>
-  </si>
-  <si>
-    <t>Comarca</t>
-  </si>
-  <si>
-    <t>Explotaciones cuyo titular es persona física</t>
-  </si>
-  <si>
-    <t>Nombre del municipio</t>
-  </si>
-  <si>
-    <t>Código del municipio</t>
-  </si>
-  <si>
-    <t>Explotaciones cuya gestión se lleva por el titular de la misma</t>
-  </si>
-  <si>
-    <t>Código de la comarca</t>
-  </si>
-  <si>
-    <t>Explotaciones cuya gestión se lleva por un miembro de la familia, no titular</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>codigo-de-la-provincia</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
-  </si>
-  <si>
-    <t>numero-total-de-explotaciones</t>
-  </si>
-  <si>
-    <t>comarca</t>
-  </si>
-  <si>
-    <t>explotaciones-cuyo-titular-es-persona-fisica</t>
-  </si>
-  <si>
-    <t>nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>codigo-del-municipio</t>
-  </si>
-  <si>
-    <t>explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
-  </si>
-  <si>
-    <t>codigo-de-la-comarca</t>
-  </si>
-  <si>
-    <t>explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
-  </si>
-  <si>
-    <t>iaest-measure:numero-total-de-explotaciones</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuyo-titular-es-persona-fisica</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>xsd:date</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
+    <t xml:space="preserve">Código de la provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAA nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explotaciones cuya gestión se lleva por otra persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número total de explotaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explotaciones cuyo titular es persona física</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código del municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explotaciones cuya gestión se lleva por el titular de la misma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código de la comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explotaciones cuya gestión se lleva por un miembro de la familia, no titular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo-de-la-provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccaa-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero-total-de-explotaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explotaciones-cuyo-titular-es-persona-fisica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre-del-municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo-del-municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo-de-la-comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:numero-total-de-explotaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:explotaciones-cuyo-titular-es-persona-fisica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Comunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Provincia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="45.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="57.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="57.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="47.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="58.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="50.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -236,8 +321,16 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -277,8 +370,16 @@
       <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -318,8 +419,16 @@
       <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -359,8 +468,16 @@
       <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -400,8 +517,23 @@
       <c r="M5" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/metadata/Informe-01-010060-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010060-A-TC-TM-TP.xlsx
@@ -1,200 +1,287 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Informe-01-010060-A-TC-TM-TP" sheetId="1" r:id="rId3"/>
+    <sheet name="Informe-05-050314-A-TC-TP" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
-    <t>Código de la provincia</t>
-  </si>
-  <si>
-    <t>CCAA nombre</t>
-  </si>
-  <si>
-    <t>Explotaciones cuya gestión se lleva por otra persona</t>
-  </si>
-  <si>
-    <t>Número total de explotaciones</t>
-  </si>
-  <si>
-    <t>Comarca</t>
-  </si>
-  <si>
-    <t>Explotaciones cuyo titular es persona física</t>
-  </si>
-  <si>
-    <t>Nombre del municipio</t>
-  </si>
-  <si>
-    <t>Código del municipio</t>
-  </si>
-  <si>
-    <t>Explotaciones cuya gestión se lleva por el titular de la misma</t>
-  </si>
-  <si>
-    <t>Código de la comarca</t>
-  </si>
-  <si>
-    <t>Explotaciones cuya gestión se lleva por un miembro de la familia, no titular</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>codigo-de-la-provincia</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
-  </si>
-  <si>
-    <t>numero-total-de-explotaciones</t>
-  </si>
-  <si>
-    <t>comarca</t>
-  </si>
-  <si>
-    <t>explotaciones-cuyo-titular-es-persona-fisica</t>
-  </si>
-  <si>
-    <t>nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>codigo-del-municipio</t>
-  </si>
-  <si>
-    <t>explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
-  </si>
-  <si>
-    <t>codigo-de-la-comarca</t>
-  </si>
-  <si>
-    <t>explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
-  </si>
-  <si>
-    <t>iaest-measure:numero-total-de-explotaciones</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuyo-titular-es-persona-fisica</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>xsd:date</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
+    <t xml:space="preserve">Código de la provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAA nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explotaciones cuya gestión se lleva por otra persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número total de explotaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explotaciones cuyo titular es persona física</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código del municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explotaciones cuya gestión se lleva por el titular de la misma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código de la comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explotaciones cuya gestión se lleva por un miembro de la familia, no titular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo-de-la-provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccaa-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero-total-de-explotaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explotaciones-cuyo-titular-es-persona-fisica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre-del-municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo-del-municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo-de-la-comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:explotaciones-cuya-gestion-se-lleva-por-otra-persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:numero-total-de-explotaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:explotaciones-cuyo-titular-es-persona-fisica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:explotaciones-cuya-gestion-se-lleva-por-el-titular-de-la-misma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:explotaciones-cuya-gestion-se-lleva-por-un-miembro-de-la-familia-no-titular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Comunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Provincia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="45.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="57.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="57.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="47.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="58.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="50.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -234,8 +321,16 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -275,8 +370,16 @@
       <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -316,8 +419,16 @@
       <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -357,8 +468,16 @@
       <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -398,8 +517,23 @@
       <c r="M5" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>